--- a/trunk/src/check-list/MoNT/CheckList-20101206.xlsx
+++ b/trunk/src/check-list/MoNT/CheckList-20101206.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Công việc tuần" sheetId="10" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Thứ sáu" sheetId="14" r:id="rId6"/>
     <sheet name="Thứ bảy" sheetId="15" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="30">
   <si>
     <t>BÁO CÁO THỰC HIỆN CÔNG VIỆC NGÀY</t>
   </si>
@@ -149,12 +149,21 @@
   <si>
     <t xml:space="preserve">   CTTDT</t>
   </si>
+  <si>
+    <t>Test quy trình</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa quy trình được sử dụng để chạy mặc định</t>
+  </si>
+  <si>
+    <t>Test và fix lỗi các portlet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -739,6 +748,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -773,6 +783,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -948,17 +959,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
@@ -971,7 +982,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>15</v>
       </c>
@@ -983,7 +994,7 @@
       <c r="G1" s="42"/>
       <c r="H1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>21</v>
       </c>
@@ -999,7 +1010,7 @@
       </c>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1024,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1038,7 @@
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="25"/>
       <c r="C5" s="4"/>
@@ -1037,7 +1048,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1060,7 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" ht="47.25">
+    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>3</v>
       </c>
@@ -1075,8 +1086,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="40" t="s">
         <v>24</v>
       </c>
@@ -1087,9 +1100,13 @@
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="40"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -1097,7 +1114,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1107,7 +1124,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1117,7 +1134,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1127,7 +1144,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1137,7 +1154,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1147,7 +1164,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1157,7 +1174,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1167,7 +1184,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1177,7 +1194,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1187,7 +1204,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1225,7 @@
       </c>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1218,7 +1235,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1228,7 +1245,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1257,7 @@
       <c r="G22" s="41"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" ht="47.25">
+    <row r="23" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="22"/>
       <c r="C24" s="6"/>
@@ -1272,7 +1289,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="22"/>
       <c r="C25" s="6"/>
@@ -1281,7 +1298,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="22"/>
       <c r="C26" s="6"/>
@@ -1290,7 +1307,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1299,7 +1316,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1308,7 +1325,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1317,7 +1334,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1326,7 +1343,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1335,7 +1352,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1344,7 +1361,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1353,7 +1370,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1362,7 +1379,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="18.75">
+    <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>10</v>
       </c>
@@ -1400,17 +1417,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -1422,7 +1439,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1450,7 @@
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="51" t="s">
         <v>11</v>
@@ -1446,7 +1463,7 @@
       </c>
       <c r="G2" s="52"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +1477,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1491,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1483,7 +1500,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>20</v>
       </c>
@@ -1494,7 +1511,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25">
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
@@ -1517,8 +1534,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1528,7 +1547,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1537,7 +1556,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1546,7 +1565,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1555,7 +1574,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1564,7 +1583,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1573,7 +1592,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1582,7 +1601,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1591,7 +1610,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -1611,7 +1630,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1620,7 +1639,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1650,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="47.25">
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="22"/>
       <c r="C21" s="6"/>
@@ -1663,7 +1682,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="22"/>
       <c r="C22" s="6"/>
@@ -1672,7 +1691,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="22"/>
       <c r="C23" s="6"/>
@@ -1681,7 +1700,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1690,7 +1709,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1699,7 +1718,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1708,7 +1727,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1717,7 +1736,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1726,7 +1745,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1735,7 +1754,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1744,7 +1763,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1753,7 +1772,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
@@ -1791,17 +1810,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -1813,7 +1832,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1843,7 @@
       <c r="F1" s="53"/>
       <c r="G1" s="53"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="51" t="s">
         <v>11</v>
@@ -1837,7 +1856,7 @@
       </c>
       <c r="G2" s="54"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1870,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1865,7 +1884,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1874,7 +1893,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1904,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25">
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +1927,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1919,16 +1940,20 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1937,7 +1962,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1946,7 +1971,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1955,7 +1980,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1964,7 +1989,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1973,7 +1998,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1982,7 +2007,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2027,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2011,7 +2036,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
@@ -2022,7 +2047,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="47.25">
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>3</v>
       </c>
@@ -2045,7 +2070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="22"/>
       <c r="C21" s="6"/>
@@ -2054,7 +2079,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="22"/>
       <c r="C22" s="6"/>
@@ -2063,7 +2088,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="22"/>
       <c r="C23" s="6"/>
@@ -2072,7 +2097,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2081,7 +2106,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2090,7 +2115,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2099,7 +2124,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2108,7 +2133,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2117,7 +2142,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2126,7 +2151,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2135,7 +2160,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2144,7 +2169,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
@@ -2179,17 +2204,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -2201,7 +2226,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2237,7 @@
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="51" t="s">
         <v>11</v>
@@ -2225,7 +2250,7 @@
       </c>
       <c r="G2" s="54"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2264,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2278,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2262,7 +2287,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>20</v>
       </c>
@@ -2273,7 +2298,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25">
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>3</v>
       </c>
@@ -2296,16 +2321,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2314,7 +2343,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2323,7 +2352,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2332,7 +2361,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2341,7 +2370,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2350,7 +2379,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2359,7 +2388,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -2368,7 +2397,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -2388,7 +2417,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2397,7 +2426,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="55" t="s">
         <v>19</v>
       </c>
@@ -2408,7 +2437,7 @@
       <c r="F19" s="56"/>
       <c r="G19" s="57"/>
     </row>
-    <row r="20" spans="1:7" ht="47.25">
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>3</v>
       </c>
@@ -2431,7 +2460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="22"/>
       <c r="C21" s="6"/>
@@ -2440,7 +2469,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="22"/>
       <c r="C22" s="6"/>
@@ -2449,7 +2478,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="22"/>
       <c r="C23" s="6"/>
@@ -2458,7 +2487,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2467,7 +2496,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2476,7 +2505,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2485,7 +2514,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2494,7 +2523,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2503,7 +2532,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2512,7 +2541,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2521,7 +2550,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2530,7 +2559,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
@@ -2565,17 +2594,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -2587,7 +2616,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -2598,7 +2627,7 @@
       <c r="F1" s="59"/>
       <c r="G1" s="59"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="51" t="s">
         <v>11</v>
@@ -2611,7 +2640,7 @@
       </c>
       <c r="G2" s="54"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2625,7 +2654,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2639,7 +2668,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2648,7 +2677,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2688,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25">
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
@@ -2682,16 +2711,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2700,7 +2733,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2709,7 +2742,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2718,7 +2751,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2727,7 +2760,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2736,7 +2769,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2745,7 +2778,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -2754,7 +2787,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -2774,7 +2807,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2783,7 +2816,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
@@ -2794,7 +2827,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="47.25">
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="22"/>
       <c r="C21" s="6"/>
@@ -2826,7 +2859,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="22"/>
       <c r="C22" s="6"/>
@@ -2835,7 +2868,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="22"/>
       <c r="C23" s="6"/>
@@ -2844,7 +2877,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2853,7 +2886,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2862,7 +2895,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2871,7 +2904,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2880,7 +2913,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2889,7 +2922,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2898,7 +2931,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2907,7 +2940,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2916,7 +2949,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
@@ -2951,7 +2984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2961,7 +2994,7 @@
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -2973,7 +3006,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3017,7 @@
       <c r="F1" s="60"/>
       <c r="G1" s="60"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="51" t="s">
         <v>11</v>
@@ -2997,7 +3030,7 @@
       </c>
       <c r="G2" s="54"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3011,7 +3044,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3025,7 +3058,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3034,7 +3067,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>20</v>
       </c>
@@ -3045,7 +3078,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25">
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>3</v>
       </c>
@@ -3068,7 +3101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3077,7 +3110,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3086,7 +3119,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3095,7 +3128,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3104,7 +3137,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3113,7 +3146,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3122,7 +3155,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3131,7 +3164,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -3140,7 +3173,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -3160,7 +3193,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3169,7 +3202,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
@@ -3180,7 +3213,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="47.25">
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>3</v>
       </c>
@@ -3203,7 +3236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="22"/>
       <c r="C21" s="6"/>
@@ -3212,7 +3245,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="22"/>
       <c r="C22" s="6"/>
@@ -3221,7 +3254,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="22"/>
       <c r="C23" s="6"/>
@@ -3230,7 +3263,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3239,7 +3272,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3248,7 +3281,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3257,7 +3290,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3266,7 +3299,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3275,7 +3308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3284,7 +3317,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3293,7 +3326,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3302,7 +3335,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
@@ -3337,17 +3370,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="1" customWidth="1"/>
@@ -3359,7 +3392,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -3370,7 +3403,7 @@
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="51" t="s">
         <v>11</v>
@@ -3383,7 +3416,7 @@
       </c>
       <c r="G2" s="54"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3397,7 +3430,7 @@
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3411,7 +3444,7 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -3420,7 +3453,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>20</v>
       </c>
@@ -3431,7 +3464,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25">
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
@@ -3454,7 +3487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3463,7 +3496,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3472,7 +3505,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3481,7 +3514,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3490,7 +3523,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3499,7 +3532,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3508,7 +3541,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3517,7 +3550,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -3526,7 +3559,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
@@ -3546,7 +3579,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3555,7 +3588,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>19</v>
       </c>
@@ -3566,7 +3599,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" ht="47.25">
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>3</v>
       </c>
@@ -3589,7 +3622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="22"/>
       <c r="C21" s="6"/>
@@ -3598,7 +3631,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="22"/>
       <c r="C22" s="6"/>
@@ -3607,7 +3640,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="22"/>
       <c r="C23" s="6"/>
@@ -3616,7 +3649,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3625,7 +3658,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3634,7 +3667,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3643,7 +3676,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3652,7 +3685,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3661,7 +3694,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3670,7 +3703,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3679,7 +3712,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -3688,7 +3721,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
